--- a/planilhas/CDS.xlsx
+++ b/planilhas/CDS.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ufscbr-my.sharepoint.com/personal/quadros_junior_ufsc_br/Documents/Prefeitura/Licitações/Ar-Condicionado/Levantamento Centros e Campi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramon\OneDrive\Documentos\GitHub\analisadorPlanilhas\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_9FB3C53A557FB197D566F17A1A2CF00F3686DA8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DE67916-DE74-4D2E-A814-5E7F9ABFCF90}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745924F6-E699-4BF6-9506-2C5608848A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unidade XXX" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -320,9 +319,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -360,7 +359,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -466,7 +465,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -608,7 +607,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -620,7 +619,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J101" sqref="A2:J101"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7259,16 +7258,4 @@
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03704D03-1A86-4BEC-B132-9B20D3D21989}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>